--- a/SRC/data_dictionary.xlsx
+++ b/SRC/data_dictionary.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
   <fileSharing readOnlyRecommended="1"/>
-  <workbookPr/>
+  <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olli\Documents\GitHub\ReadingData\SRC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HALmob/Documents/gits/ReadingData/SRC/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockRevision="1"/>
@@ -28,7 +28,6 @@
   </definedNames>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <customWorkbookViews>
-    <customWorkbookView name="Olli - Persönliche Ansicht" guid="{EDBEC29F-4228-4B96-941C-8F57FCCA839E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-11" yWindow="-11" windowWidth="1942" windowHeight="1056" activeSheetId="1"/>
     <customWorkbookView name="Duncan Paterson - Personal View" guid="{CF58D26F-A0BA-0142-B29E-E0250F7879E1}" mergeInterval="0" personalView="1" windowWidth="1051" windowHeight="290" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="138">
   <si>
     <t>person_id</t>
   </si>
@@ -81,6 +80,12 @@
     <t>social_position</t>
   </si>
   <si>
+    <t>father_id</t>
+  </si>
+  <si>
+    <t>mother_id</t>
+  </si>
+  <si>
     <t>neibu_access</t>
   </si>
   <si>
@@ -120,6 +125,9 @@
     <t>First name</t>
   </si>
   <si>
+    <t>Language of this name, EN, ZH_PY, ZH_HZ etc.</t>
+  </si>
+  <si>
     <t>records whether or when a person experienced rustication; write "no", if not, provide year for yes</t>
   </si>
   <si>
@@ -219,6 +227,9 @@
     <t>Title of a text; for the texts discussed by readers in autobiographical texts, create separate lines for a) title in Chinese characters; b) title in original language (if German, French, Italian, English) or English (esp. for texts originally in Russian)</t>
   </si>
   <si>
+    <t>Language of this title EN, ZH_PY, ZH_HZ etc.</t>
+  </si>
+  <si>
     <t>Refer to genre IS</t>
   </si>
   <si>
@@ -273,6 +284,9 @@
     <t>IsoLangCode</t>
   </si>
   <si>
+    <t xml:space="preserve">use standard codes from </t>
+  </si>
+  <si>
     <t>name of the language in English</t>
   </si>
   <si>
@@ -303,6 +317,9 @@
     <t>Name of an institution, for example "school"; "university"; Baiyangdian group; Chinese Communist Party; for generic institutions use English, for others Chinese pinyin</t>
   </si>
   <si>
+    <t>language code</t>
+  </si>
+  <si>
     <t>alternative name for the institution, CCP instead of Chinese Communist Party</t>
   </si>
   <si>
@@ -333,6 +350,9 @@
     <t>PL and a five digit number, with leading zeros if necessary, p.e. PL00001</t>
   </si>
   <si>
+    <t>Name of a place in English / Chinese pinyin: Shanghai; Cologne; Rome</t>
+  </si>
+  <si>
     <t>geo.data</t>
   </si>
   <si>
@@ -354,6 +374,9 @@
     <t>Give name of a location - location refers to a type of place: in the market place; on the toilet; in the kitchen; at school; at the seaside; on a boat…</t>
   </si>
   <si>
+    <t>language of the term in loc_name</t>
+  </si>
+  <si>
     <t>action_ID</t>
   </si>
   <si>
@@ -420,6 +443,12 @@
     <t>LH</t>
   </si>
   <si>
+    <t>Reference to person ID for a person's father</t>
+  </si>
+  <si>
+    <t>Reference to person ID for a person's mother</t>
+  </si>
+  <si>
     <t>Reference to text in which a reading is recorded; for person entries for authors of autobiographical texts or of academic texts, this can be left empty</t>
   </si>
   <si>
@@ -427,24 +456,12 @@
   </si>
   <si>
     <t>name of project member last modifying this line; use acronym</t>
-  </si>
-  <si>
-    <t>use standard codes from ISO 639-1</t>
-  </si>
-  <si>
-    <t>Name of a place in English: Shanghai; Cologne; Rome</t>
-  </si>
-  <si>
-    <t>do we need different languages or is English enough?</t>
-  </si>
-  <si>
-    <t>language code like en, zh-Latn-py, zh etc.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -491,16 +508,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -544,7 +559,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{429CA83B-0199-4AA2-AC84-E29F196272E7}" diskRevisions="1" revisionId="12" version="5" protected="1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{EEA13FF3-0228-6340-8958-F1EF18A8B876}" diskRevisions="1" version="4" protected="1">
   <header guid="{B249EB94-512D-0647-AC9D-85790D991044}" dateTime="2017-07-11T17:38:53" maxSheetId="2" userName="Duncan Paterson" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -561,11 +576,6 @@
     </sheetIdMap>
   </header>
   <header guid="{EEA13FF3-0228-6340-8958-F1EF18A8B876}" dateTime="2017-07-11T17:43:04" maxSheetId="2" userName="Duncan Paterson" r:id="rId4">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{429CA83B-0199-4AA2-AC84-E29F196272E7}" dateTime="2017-07-12T21:15:18" maxSheetId="2" userName="Olli" r:id="rId5" minRId="1" maxRId="12">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -595,240 +605,6 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcv guid="{CF58D26F-A0BA-0142-B29E-E0250F7879E1}" action="delete"/>
   <rcv guid="{CF58D26F-A0BA-0142-B29E-E0250F7879E1}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="1" sId="1" ref="A14:XFD14" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A14:XFD14" start="0" length="0"/>
-    <rcc rId="0" sId="1">
-      <nc r="A14" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="B14" t="inlineStr">
-        <is>
-          <t>father_id</t>
-        </is>
-      </nc>
-      <ndxf>
-        <fill>
-          <patternFill patternType="solid">
-            <bgColor rgb="FFFFFF00"/>
-          </patternFill>
-        </fill>
-      </ndxf>
-    </rcc>
-    <rcc rId="0" sId="1">
-      <nc r="C14" t="inlineStr">
-        <is>
-          <t>Reference to person ID for a person's father</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="1" sqref="I14" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="K14" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-      </dxf>
-    </rfmt>
-  </rrc>
-  <rrc rId="2" sId="1" ref="A14:XFD14" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A14:XFD14" start="0" length="0"/>
-    <rcc rId="0" sId="1">
-      <nc r="A14" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="B14" t="inlineStr">
-        <is>
-          <t>mother_id</t>
-        </is>
-      </nc>
-      <ndxf>
-        <fill>
-          <patternFill patternType="solid">
-            <bgColor rgb="FFFFFF00"/>
-          </patternFill>
-        </fill>
-      </ndxf>
-    </rcc>
-    <rcc rId="0" sId="1">
-      <nc r="C14" t="inlineStr">
-        <is>
-          <t>Reference to person ID for a person's mother</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="1" sqref="I14" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="K14" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-      </dxf>
-    </rfmt>
-  </rrc>
-  <rfmt sheetId="1" sqref="C57">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rcc rId="3" sId="1">
-    <oc r="C57" t="inlineStr">
-      <is>
-        <t xml:space="preserve">use standard codes from </t>
-      </is>
-    </oc>
-    <nc r="C57" t="inlineStr">
-      <is>
-        <t>use standard codes from ISO 639-1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="4" sId="1">
-    <oc r="C77" t="inlineStr">
-      <is>
-        <t>Name of a place in English / Chinese pinyin: Shanghai; Cologne; Rome</t>
-      </is>
-    </oc>
-    <nc r="C77" t="inlineStr">
-      <is>
-        <t>Name of a place in English: Shanghai; Cologne; Rome</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="B87">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rcc rId="5" sId="1" xfDxf="1" dxf="1">
-    <nc r="D87" t="inlineStr">
-      <is>
-        <t>do we need different languages or is English enough?</t>
-      </is>
-    </nc>
-  </rcc>
-  <rm rId="6" sheetId="1" source="D87" destination="I87" sourceSheetId="1">
-    <rfmt sheetId="1" sqref="I87" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-      </dxf>
-    </rfmt>
-  </rm>
-  <rfmt sheetId="1" sqref="I87">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="I87:M87">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rcc rId="7" sId="1">
-    <oc r="C66" t="inlineStr">
-      <is>
-        <t>language code</t>
-      </is>
-    </oc>
-    <nc r="C66" t="inlineStr">
-      <is>
-        <t>language code like en, zh-Latn-py, zh etc.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="8" sId="1">
-    <oc r="C50" t="inlineStr">
-      <is>
-        <t>Language of this title EN, ZH_PY, ZH_HZ etc.</t>
-      </is>
-    </oc>
-    <nc r="C50" t="inlineStr">
-      <is>
-        <t>language code like en, zh-Latn-py, zh etc.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="9" sId="1">
-    <oc r="C87" t="inlineStr">
-      <is>
-        <t>language of the term in loc_name</t>
-      </is>
-    </oc>
-    <nc r="C87" t="inlineStr">
-      <is>
-        <t>language code like en, zh-Latn-py, zh etc.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="10" sId="1">
-    <oc r="C5" t="inlineStr">
-      <is>
-        <t>Language of this name, EN, ZH_PY, ZH_HZ etc.</t>
-      </is>
-    </oc>
-    <nc r="C5" t="inlineStr">
-      <is>
-        <t>language code like en, zh-Latn-py, zh etc.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="11" sId="1">
-    <oc r="C11" t="inlineStr">
-      <is>
-        <t>Language of this name, EN, ZH_PY, ZH_HZ etc.</t>
-      </is>
-    </oc>
-    <nc r="C11" t="inlineStr">
-      <is>
-        <t>language code like en, zh-Latn-py, zh etc.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="12" sId="1">
-    <oc r="C33" t="inlineStr">
-      <is>
-        <t>Language of this title EN, ZH_PY, ZH_HZ etc.</t>
-      </is>
-    </oc>
-    <nc r="C33" t="inlineStr">
-      <is>
-        <t>language code like en, zh-Latn-py, zh etc.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{EDBEC29F-4228-4B96-941C-8F57FCCA839E}" action="add"/>
 </revisions>
 </file>
 
@@ -1123,1209 +899,1219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="L1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1">
         <v>42920</v>
       </c>
       <c r="J2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="K2" s="1">
         <v>42920</v>
       </c>
       <c r="L2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>40</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" t="s">
         <v>55</v>
       </c>
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="C41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="C44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>55</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
         <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>70</v>
       </c>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>74</v>
+      </c>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" t="s">
-        <v>131</v>
-      </c>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>66</v>
-      </c>
-      <c r="B51" t="s">
-        <v>69</v>
-      </c>
       <c r="C51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C52" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B55" t="s">
         <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>75</v>
-      </c>
-      <c r="B58" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="C57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+      <c r="B59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B62" t="s">
         <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" t="s">
         <v>82</v>
       </c>
-      <c r="B64" t="s">
-        <v>77</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="C66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>87</v>
+      </c>
+      <c r="B67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>82</v>
-      </c>
-      <c r="B65" t="s">
-        <v>78</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="C68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>82</v>
-      </c>
-      <c r="B66" t="s">
-        <v>79</v>
-      </c>
-      <c r="C66" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>82</v>
-      </c>
-      <c r="B67" t="s">
-        <v>80</v>
-      </c>
-      <c r="C67" s="3" t="s">
+      <c r="C69" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>82</v>
-      </c>
-      <c r="B68" t="s">
-        <v>81</v>
-      </c>
-      <c r="C68" s="3" t="s">
+      <c r="C70" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>82</v>
-      </c>
-      <c r="B69" t="s">
-        <v>13</v>
-      </c>
-      <c r="C69" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>82</v>
-      </c>
-      <c r="B70" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>82</v>
-      </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B74" t="s">
         <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B76" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C76" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>94</v>
-      </c>
-      <c r="B77" t="s">
-        <v>91</v>
-      </c>
-      <c r="C77" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B78" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B79" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>94</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>15</v>
+        <v>100</v>
+      </c>
+      <c r="B80" t="s">
+        <v>98</v>
       </c>
       <c r="C80" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="C81" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B83" t="s">
         <v>18</v>
       </c>
       <c r="C83" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>100</v>
       </c>
       <c r="B85" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>100</v>
-      </c>
-      <c r="B86" t="s">
-        <v>98</v>
-      </c>
-      <c r="C86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>100</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>99</v>
+        <v>107</v>
+      </c>
+      <c r="B87" t="s">
+        <v>104</v>
       </c>
       <c r="C87" t="s">
-        <v>131</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J87" s="3"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>100</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>15</v>
+        <v>107</v>
+      </c>
+      <c r="B88" t="s">
+        <v>105</v>
       </c>
       <c r="C88" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="C89" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C90" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B91" t="s">
         <v>18</v>
       </c>
       <c r="C91" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>107</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B93" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C93" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>104</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C94" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>104</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>15</v>
+        <v>112</v>
+      </c>
+      <c r="B95" t="s">
+        <v>111</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>104</v>
-      </c>
-      <c r="B96" t="s">
-        <v>16</v>
+        <v>112</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="C96" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C97" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B98" t="s">
         <v>18</v>
       </c>
       <c r="C98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>112</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>112</v>
+      </c>
+      <c r="B100" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>122</v>
+      </c>
+      <c r="B102" t="s">
+        <v>115</v>
+      </c>
+      <c r="C102" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>122</v>
+      </c>
+      <c r="B103" t="s">
+        <v>116</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>122</v>
+      </c>
+      <c r="B104" t="s">
+        <v>117</v>
+      </c>
+      <c r="C104" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>122</v>
+      </c>
+      <c r="B105" t="s">
+        <v>118</v>
+      </c>
+      <c r="C105" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>122</v>
+      </c>
+      <c r="B106" t="s">
+        <v>41</v>
+      </c>
+      <c r="C106" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>114</v>
-      </c>
-      <c r="B100" t="s">
-        <v>107</v>
-      </c>
-      <c r="C100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>114</v>
-      </c>
-      <c r="B101" t="s">
-        <v>108</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>114</v>
-      </c>
-      <c r="B102" t="s">
-        <v>109</v>
-      </c>
-      <c r="C102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>114</v>
-      </c>
-      <c r="B103" t="s">
-        <v>110</v>
-      </c>
-      <c r="C103" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>114</v>
-      </c>
-      <c r="B104" t="s">
-        <v>38</v>
-      </c>
-      <c r="C104" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>122</v>
+      </c>
+      <c r="B107" t="s">
+        <v>42</v>
+      </c>
+      <c r="C107" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>122</v>
+      </c>
+      <c r="B108" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>114</v>
-      </c>
-      <c r="B105" t="s">
-        <v>39</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="C108" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>122</v>
+      </c>
+      <c r="B109" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>114</v>
-      </c>
-      <c r="B106" t="s">
-        <v>111</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="C109" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>114</v>
-      </c>
-      <c r="B107" t="s">
-        <v>112</v>
-      </c>
-      <c r="C107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>114</v>
-      </c>
-      <c r="B108" t="s">
-        <v>13</v>
-      </c>
-      <c r="C108" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>114</v>
-      </c>
-      <c r="B109" t="s">
-        <v>14</v>
-      </c>
-      <c r="C109" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>114</v>
-      </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" t="s">
         <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B111" t="s">
         <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C112" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B113" t="s">
         <v>18</v>
       </c>
       <c r="C113" t="s">
-        <v>127</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>122</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>122</v>
+      </c>
+      <c r="B115" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{EDBEC29F-4228-4B96-941C-8F57FCCA839E}" topLeftCell="A76">
-      <selection activeCell="C87" sqref="C87"/>
+    <customSheetView guid="{CF58D26F-A0BA-0142-B29E-E0250F7879E1}" topLeftCell="A8">
+      <selection activeCell="A13" sqref="A13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{CF58D26F-A0BA-0142-B29E-E0250F7879E1}" topLeftCell="A8">
-      <selection activeCell="A13" sqref="A13"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/SRC/data_dictionary.xlsx
+++ b/SRC/data_dictionary.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <fileSharing readOnlyRecommended="1"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HALmob/Documents/gits/ReadingData/SRC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olli\Documents\GitHub\ReadingData\SRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockRevision="1"/>
@@ -28,6 +28,7 @@
   </definedNames>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Olli - Persönliche Ansicht" guid="{EDBEC29F-4228-4B96-941C-8F57FCCA839E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-11" yWindow="-11" windowWidth="1942" windowHeight="1056" activeSheetId="1"/>
     <customWorkbookView name="Duncan Paterson - Personal View" guid="{CF58D26F-A0BA-0142-B29E-E0250F7879E1}" mergeInterval="0" personalView="1" windowWidth="1051" windowHeight="290" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="132">
   <si>
     <t>person_id</t>
   </si>
@@ -80,12 +81,6 @@
     <t>social_position</t>
   </si>
   <si>
-    <t>father_id</t>
-  </si>
-  <si>
-    <t>mother_id</t>
-  </si>
-  <si>
     <t>neibu_access</t>
   </si>
   <si>
@@ -125,9 +120,6 @@
     <t>First name</t>
   </si>
   <si>
-    <t>Language of this name, EN, ZH_PY, ZH_HZ etc.</t>
-  </si>
-  <si>
     <t>records whether or when a person experienced rustication; write "no", if not, provide year for yes</t>
   </si>
   <si>
@@ -227,9 +219,6 @@
     <t>Title of a text; for the texts discussed by readers in autobiographical texts, create separate lines for a) title in Chinese characters; b) title in original language (if German, French, Italian, English) or English (esp. for texts originally in Russian)</t>
   </si>
   <si>
-    <t>Language of this title EN, ZH_PY, ZH_HZ etc.</t>
-  </si>
-  <si>
     <t>Refer to genre IS</t>
   </si>
   <si>
@@ -284,9 +273,6 @@
     <t>IsoLangCode</t>
   </si>
   <si>
-    <t xml:space="preserve">use standard codes from </t>
-  </si>
-  <si>
     <t>name of the language in English</t>
   </si>
   <si>
@@ -317,9 +303,6 @@
     <t>Name of an institution, for example "school"; "university"; Baiyangdian group; Chinese Communist Party; for generic institutions use English, for others Chinese pinyin</t>
   </si>
   <si>
-    <t>language code</t>
-  </si>
-  <si>
     <t>alternative name for the institution, CCP instead of Chinese Communist Party</t>
   </si>
   <si>
@@ -350,9 +333,6 @@
     <t>PL and a five digit number, with leading zeros if necessary, p.e. PL00001</t>
   </si>
   <si>
-    <t>Name of a place in English / Chinese pinyin: Shanghai; Cologne; Rome</t>
-  </si>
-  <si>
     <t>geo.data</t>
   </si>
   <si>
@@ -374,9 +354,6 @@
     <t>Give name of a location - location refers to a type of place: in the market place; on the toilet; in the kitchen; at school; at the seaside; on a boat…</t>
   </si>
   <si>
-    <t>language of the term in loc_name</t>
-  </si>
-  <si>
     <t>action_ID</t>
   </si>
   <si>
@@ -443,12 +420,6 @@
     <t>LH</t>
   </si>
   <si>
-    <t>Reference to person ID for a person's father</t>
-  </si>
-  <si>
-    <t>Reference to person ID for a person's mother</t>
-  </si>
-  <si>
     <t>Reference to text in which a reading is recorded; for person entries for authors of autobiographical texts or of academic texts, this can be left empty</t>
   </si>
   <si>
@@ -456,12 +427,24 @@
   </si>
   <si>
     <t>name of project member last modifying this line; use acronym</t>
+  </si>
+  <si>
+    <t>use standard codes from ISO 639-1</t>
+  </si>
+  <si>
+    <t>Name of a place in English: Shanghai; Cologne; Rome</t>
+  </si>
+  <si>
+    <t>do we need different languages or is English enough?</t>
+  </si>
+  <si>
+    <t>language code like en, zh-Latn-py, zh etc.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -508,14 +491,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -559,7 +544,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{EEA13FF3-0228-6340-8958-F1EF18A8B876}" diskRevisions="1" version="4" protected="1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{429CA83B-0199-4AA2-AC84-E29F196272E7}" diskRevisions="1" revisionId="12" version="5" protected="1">
   <header guid="{B249EB94-512D-0647-AC9D-85790D991044}" dateTime="2017-07-11T17:38:53" maxSheetId="2" userName="Duncan Paterson" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -576,6 +561,11 @@
     </sheetIdMap>
   </header>
   <header guid="{EEA13FF3-0228-6340-8958-F1EF18A8B876}" dateTime="2017-07-11T17:43:04" maxSheetId="2" userName="Duncan Paterson" r:id="rId4">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{429CA83B-0199-4AA2-AC84-E29F196272E7}" dateTime="2017-07-12T21:15:18" maxSheetId="2" userName="Olli" r:id="rId5" minRId="1" maxRId="12">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -605,6 +595,240 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcv guid="{CF58D26F-A0BA-0142-B29E-E0250F7879E1}" action="delete"/>
   <rcv guid="{CF58D26F-A0BA-0142-B29E-E0250F7879E1}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="1" sId="1" ref="A14:XFD14" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="A14:XFD14" start="0" length="0"/>
+    <rcc rId="0" sId="1">
+      <nc r="A14" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="B14" t="inlineStr">
+        <is>
+          <t>father_id</t>
+        </is>
+      </nc>
+      <ndxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor rgb="FFFFFF00"/>
+          </patternFill>
+        </fill>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C14" t="inlineStr">
+        <is>
+          <t>Reference to person ID for a person's father</t>
+        </is>
+      </nc>
+    </rcc>
+    <rfmt sheetId="1" sqref="I14" start="0" length="0">
+      <dxf>
+        <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="K14" start="0" length="0">
+      <dxf>
+        <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rrc rId="2" sId="1" ref="A14:XFD14" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="A14:XFD14" start="0" length="0"/>
+    <rcc rId="0" sId="1">
+      <nc r="A14" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="B14" t="inlineStr">
+        <is>
+          <t>mother_id</t>
+        </is>
+      </nc>
+      <ndxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor rgb="FFFFFF00"/>
+          </patternFill>
+        </fill>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C14" t="inlineStr">
+        <is>
+          <t>Reference to person ID for a person's mother</t>
+        </is>
+      </nc>
+    </rcc>
+    <rfmt sheetId="1" sqref="I14" start="0" length="0">
+      <dxf>
+        <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="K14" start="0" length="0">
+      <dxf>
+        <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rfmt sheetId="1" sqref="C57">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="3" sId="1">
+    <oc r="C57" t="inlineStr">
+      <is>
+        <t xml:space="preserve">use standard codes from </t>
+      </is>
+    </oc>
+    <nc r="C57" t="inlineStr">
+      <is>
+        <t>use standard codes from ISO 639-1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4" sId="1">
+    <oc r="C77" t="inlineStr">
+      <is>
+        <t>Name of a place in English / Chinese pinyin: Shanghai; Cologne; Rome</t>
+      </is>
+    </oc>
+    <nc r="C77" t="inlineStr">
+      <is>
+        <t>Name of a place in English: Shanghai; Cologne; Rome</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="B87">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="5" sId="1" xfDxf="1" dxf="1">
+    <nc r="D87" t="inlineStr">
+      <is>
+        <t>do we need different languages or is English enough?</t>
+      </is>
+    </nc>
+  </rcc>
+  <rm rId="6" sheetId="1" source="D87" destination="I87" sourceSheetId="1">
+    <rfmt sheetId="1" sqref="I87" start="0" length="0">
+      <dxf>
+        <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rfmt sheetId="1" sqref="I87">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="I87:M87">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="7" sId="1">
+    <oc r="C66" t="inlineStr">
+      <is>
+        <t>language code</t>
+      </is>
+    </oc>
+    <nc r="C66" t="inlineStr">
+      <is>
+        <t>language code like en, zh-Latn-py, zh etc.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="8" sId="1">
+    <oc r="C50" t="inlineStr">
+      <is>
+        <t>Language of this title EN, ZH_PY, ZH_HZ etc.</t>
+      </is>
+    </oc>
+    <nc r="C50" t="inlineStr">
+      <is>
+        <t>language code like en, zh-Latn-py, zh etc.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="9" sId="1">
+    <oc r="C87" t="inlineStr">
+      <is>
+        <t>language of the term in loc_name</t>
+      </is>
+    </oc>
+    <nc r="C87" t="inlineStr">
+      <is>
+        <t>language code like en, zh-Latn-py, zh etc.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="10" sId="1">
+    <oc r="C5" t="inlineStr">
+      <is>
+        <t>Language of this name, EN, ZH_PY, ZH_HZ etc.</t>
+      </is>
+    </oc>
+    <nc r="C5" t="inlineStr">
+      <is>
+        <t>language code like en, zh-Latn-py, zh etc.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="11" sId="1">
+    <oc r="C11" t="inlineStr">
+      <is>
+        <t>Language of this name, EN, ZH_PY, ZH_HZ etc.</t>
+      </is>
+    </oc>
+    <nc r="C11" t="inlineStr">
+      <is>
+        <t>language code like en, zh-Latn-py, zh etc.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="12" sId="1">
+    <oc r="C33" t="inlineStr">
+      <is>
+        <t>Language of this title EN, ZH_PY, ZH_HZ etc.</t>
+      </is>
+    </oc>
+    <nc r="C33" t="inlineStr">
+      <is>
+        <t>language code like en, zh-Latn-py, zh etc.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{EDBEC29F-4228-4B96-941C-8F57FCCA839E}" action="add"/>
 </revisions>
 </file>
 
@@ -899,1219 +1123,1209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L115"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1">
         <v>42920</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K2" s="1">
         <v>42920</v>
       </c>
       <c r="L2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="C24" t="s">
         <v>43</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
         <v>39</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>40</v>
       </c>
-      <c r="C25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
+      <c r="B26" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
         <v>58</v>
       </c>
-      <c r="B33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
         <v>53</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>55</v>
       </c>
-      <c r="C40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="B43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
         <v>16</v>
       </c>
-      <c r="C43" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" t="s">
-        <v>57</v>
-      </c>
       <c r="C44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
         <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
-      </c>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
-      </c>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B55" t="s">
         <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>79</v>
-      </c>
-      <c r="B59" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B62" t="s">
         <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" t="s">
         <v>79</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>79</v>
-      </c>
-      <c r="B64" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="C66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B66" t="s">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>82</v>
       </c>
-      <c r="C66" t="s">
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>87</v>
-      </c>
-      <c r="B67" t="s">
-        <v>83</v>
-      </c>
-      <c r="C67" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>87</v>
-      </c>
-      <c r="B68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>87</v>
-      </c>
-      <c r="B69" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>87</v>
-      </c>
-      <c r="B70" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>87</v>
-      </c>
-      <c r="B71" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C73" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B74" t="s">
         <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>87</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C75" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C76" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B78" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" t="s">
         <v>96</v>
       </c>
-      <c r="C78" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C79" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>100</v>
-      </c>
-      <c r="B80" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C82" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B83" t="s">
         <v>18</v>
       </c>
       <c r="C83" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>100</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C84" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>100</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="C85" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>100</v>
+      </c>
+      <c r="B86" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>107</v>
-      </c>
-      <c r="B87" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="C87" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J87" s="3"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>107</v>
-      </c>
-      <c r="B88" t="s">
-        <v>105</v>
+        <v>100</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B89" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C90" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B91" t="s">
         <v>18</v>
       </c>
       <c r="C91" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>107</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C92" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="C93" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>104</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C94" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>112</v>
-      </c>
-      <c r="B95" t="s">
-        <v>111</v>
+        <v>104</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>112</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>125</v>
+        <v>104</v>
+      </c>
+      <c r="B96" t="s">
+        <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C97" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B98" t="s">
         <v>18</v>
       </c>
       <c r="C98" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>114</v>
+      </c>
+      <c r="B100" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>114</v>
+      </c>
+      <c r="B101" t="s">
+        <v>108</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>114</v>
+      </c>
+      <c r="B102" t="s">
+        <v>109</v>
+      </c>
+      <c r="C102" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>114</v>
+      </c>
+      <c r="B103" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>114</v>
+      </c>
+      <c r="B104" t="s">
+        <v>38</v>
+      </c>
+      <c r="C104" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" t="s">
+        <v>39</v>
+      </c>
+      <c r="C105" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>114</v>
+      </c>
+      <c r="B106" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>114</v>
+      </c>
+      <c r="B107" t="s">
         <v>112</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C99" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>112</v>
-      </c>
-      <c r="B100" t="s">
-        <v>20</v>
-      </c>
-      <c r="C100" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>122</v>
-      </c>
-      <c r="B102" t="s">
-        <v>115</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="C107" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>122</v>
-      </c>
-      <c r="B103" t="s">
-        <v>116</v>
-      </c>
-      <c r="C103" s="3" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>122</v>
-      </c>
-      <c r="B104" t="s">
-        <v>117</v>
-      </c>
-      <c r="C104" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>122</v>
-      </c>
-      <c r="B105" t="s">
-        <v>118</v>
-      </c>
-      <c r="C105" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>122</v>
-      </c>
-      <c r="B106" t="s">
-        <v>41</v>
-      </c>
-      <c r="C106" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>122</v>
-      </c>
-      <c r="B107" t="s">
-        <v>42</v>
-      </c>
-      <c r="C107" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>122</v>
-      </c>
-      <c r="B108" t="s">
-        <v>119</v>
-      </c>
-      <c r="C108" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B109" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="C109" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>122</v>
-      </c>
-      <c r="B110" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B111" t="s">
         <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C112" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B113" t="s">
         <v>18</v>
       </c>
       <c r="C113" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>122</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C114" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>122</v>
-      </c>
-      <c r="B115" t="s">
-        <v>20</v>
-      </c>
-      <c r="C115" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{EDBEC29F-4228-4B96-941C-8F57FCCA839E}" topLeftCell="A76">
+      <selection activeCell="C87" sqref="C87"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
     <customSheetView guid="{CF58D26F-A0BA-0142-B29E-E0250F7879E1}" topLeftCell="A8">
       <selection activeCell="A13" sqref="A13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>